--- a/テスト/結合テストチェックリスト_松家.xlsx
+++ b/テスト/結合テストチェックリスト_松家.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B493F-BDDF-45C5-9D49-D2C655A0806B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B51642-F55C-4095-8621-A18D4C9E7A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="結合テストチェックリスト" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テストチェックリスト!$A$7:$N$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テストチェックリスト!$A$7:$N$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="325">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1301,12 +1301,6 @@
   <si>
     <t xml:space="preserve">[エラーメッセージ]に
 "※社員番号は6桁で入力してください。"
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[エラーメッセージ]に
-"※その社員番号は既に存在しています。"
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7344,9 +7338,145 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テストNo.&amp;&amp;のデータが[TM_point]
+に登録されている</t>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん8
+[社員番号]入力値=000008
+[入社日]入力値=2023/10/10
+[生年月日]入力値=2023/10/10
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=1
+[IT経験(年)]入力値=2
+[削除フラグ]チェックボックス=OFF
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[氏名]
 入力値=CLくん7
 [社員番号]入力値=000007
+[入社日]入力値=2023/10/10
+[生年月日]入力値=2023/10/10
+[学歴]入力値=なし
+[IT以外経験(年)]入力値=5
+[IT経験(年)]入力値=1
+[削除フラグ]チェックボックス=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん8
+[社員番号]入力値=000008
 [入社日]入力値=2023/10/10
 [生年月日]入力値=2023/10/10
 [学歴]入力値=高卒
@@ -7403,6 +7533,73 @@
       <t>コウシン</t>
     </rPh>
     <rPh sb="143" eb="145">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]
+入力値=CLくん
+[社員番号]入力値=123456
+[入社日]入力値=2022/1/11
+[生年月日]入力値=2010/4/9
+[学歴]入力値=大卒
+[IT以外経験(年)]入力値=5
+[IT経験(年)]入力値=1
+[削除フラグ]チェックボックス=OFF
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ダイソツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="139" eb="141">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7416,73 +7613,6 @@
 [学歴]入力値=大卒
 [IT以外経験(年)]入力値=5
 [IT経験(年)]入力値=1
-[削除フラグ]チェックボックス=OFF
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ダイソツ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="106" eb="109">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[氏名]
-入力値=CLくん
-[社員番号]入力値=123456
-[入社日]入力値=2022/1/11
-[生年月日]入力値=2010/4/9
-[学歴]入力値=大卒
-[IT以外経験(年)]入力値=5
-[IT経験(年)]入力値=1
 [削除フラグ]チェックボックス=ON
 [更新]ボタン押下
 [社員テーブル]クリック</t>
@@ -7546,10 +7676,305 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストNo.&amp;&amp;のデータが[TM_point]
-に登録されている</t>
-    <rPh sb="25" eb="27">
-      <t>トウロク</t>
+    <t>[更新確認OK]ボタン押下時
+存在していない社員番号のデータを更新した時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※その社員番号は登録されていません。"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※その社員番号は既に登録されています。"
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価出力</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウカシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TE_staff_sc]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[社員選択テーブル]に[TE_staff_sc]のデータが表示されていることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シャインセンタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に[TE_staff_sc]のデータが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[画面選択]に遷移される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]クリック時、
+クリックした行の背景色が黄色に変わることの確認</t>
+    <rPh sb="1" eb="5">
+      <t>シャインセンタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]クリック</t>
+    <rPh sb="1" eb="5">
+      <t>シャインセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックした行の背景色が黄色に変わる</t>
+    <rPh sb="8" eb="11">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認]</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員の[確認]画面に遷移されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下時
+[画面選択]画面に遷移されることの確認</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ガメンセンタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員の[確認]画面に遷移される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[出力]</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]ボタン押下後</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わることを確認</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]ボタン押下</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わる</t>
+  </si>
+  <si>
+    <t>選択された社員のCSVファイルが出力されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員のCSVファイルが出力される</t>
+  </si>
+  <si>
+    <t>[出力]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7742,6 +8167,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7750,18 +8187,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8092,12 +8517,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
+      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8116,78 +8541,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="22">
         <v>45163</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="22">
         <v>45168</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="J4" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -8195,56 +8620,56 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -9001,7 +9426,7 @@
         <v>115</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>114</v>
@@ -9027,7 +9452,7 @@
         <v>116</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>114</v>
@@ -9050,10 +9475,10 @@
         <v>18</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>117</v>
@@ -9076,10 +9501,10 @@
         <v>18</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>117</v>
@@ -9102,10 +9527,10 @@
         <v>18</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>117</v>
@@ -9128,10 +9553,10 @@
         <v>18</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>117</v>
@@ -9151,16 +9576,16 @@
         <v>112</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="6"/>
@@ -9180,13 +9605,13 @@
         <v>18</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
@@ -9206,13 +9631,13 @@
         <v>18</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="6"/>
@@ -9232,13 +9657,13 @@
         <v>18</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="6"/>
@@ -9258,13 +9683,13 @@
         <v>18</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="6"/>
@@ -9284,13 +9709,13 @@
         <v>18</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="6"/>
@@ -9310,13 +9735,13 @@
         <v>18</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="6"/>
@@ -9336,13 +9761,13 @@
         <v>18</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="6"/>
@@ -9362,13 +9787,13 @@
         <v>18</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="6"/>
@@ -9388,13 +9813,13 @@
         <v>18</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="6"/>
@@ -9412,13 +9837,13 @@
         <v>18</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="6"/>
@@ -9429,246 +9854,248 @@
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="6"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
+    <row r="52" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="25">
+        <v>56</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" s="27"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
         <v>55</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="J53" s="7"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <v>56</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A53" s="25">
-        <v>56</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25" t="s">
+      <c r="H56" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G53" s="26" t="s">
+      <c r="F58" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H53" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="27"/>
-    </row>
-    <row r="54" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A54" s="25">
-        <v>55</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25" t="s">
+      <c r="J58" s="7"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H54" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="I54" s="26" t="s">
+      <c r="J59" s="7"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="G55" s="26" t="s">
+      <c r="H60" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H55" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="27"/>
-    </row>
-    <row r="56" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="I56" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="J56" s="27"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="J57" s="27"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="J58" s="27"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="J59" s="27"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="27"/>
-    </row>
-    <row r="60" spans="1:12" s="16" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="14"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" s="16" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A61" s="12"/>
@@ -9676,19 +10103,19 @@
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>252</v>
+        <v>112</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
@@ -9700,19 +10127,19 @@
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>185</v>
+        <v>113</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
@@ -9724,19 +10151,19 @@
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>258</v>
+        <v>112</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
@@ -9748,19 +10175,19 @@
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>185</v>
+        <v>113</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
@@ -9772,355 +10199,349 @@
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>259</v>
+        <v>112</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
       <c r="L65" s="14"/>
     </row>
-    <row r="66" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A66" s="3">
-        <v>56</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
+    <row r="66" spans="1:12" s="16" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="4" t="s">
+      <c r="F66" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I66" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A67" s="3">
+      <c r="J66" s="14"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" s="16" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="1:12" s="16" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="14"/>
+    </row>
+    <row r="69" spans="1:12" ht="225" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
         <v>57</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A68" s="3">
-        <v>58</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="3">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A69" s="3">
-        <v>59</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="6"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
-        <v>60</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F70" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="J70" s="7"/>
       <c r="K70" s="6"/>
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
-        <v>61</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="3">
-        <v>6</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>18</v>
+        <v>149</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="J71" s="7"/>
       <c r="K71" s="6"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>159</v>
+        <v>111</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J72" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="J72" s="5"/>
       <c r="K72" s="6"/>
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
-        <v>63</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="3">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="I73" s="4" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="6"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E74" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>18</v>
+        <v>164</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>105</v>
+        <v>160</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J74" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="J74" s="7"/>
       <c r="K74" s="6"/>
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E75" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J75" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
       <c r="E76" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J76" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="J76" s="5"/>
       <c r="K76" s="6"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
       <c r="E77" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F77" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="6"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="150" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -10132,25 +10553,25 @@
         <v>18</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="6"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="150" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="3" t="s">
         <v>113</v>
       </c>
@@ -10158,13 +10579,13 @@
         <v>18</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="6"/>
@@ -10172,11 +10593,11 @@
     </row>
     <row r="80" spans="1:12" ht="150" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="3" t="s">
         <v>112</v>
       </c>
@@ -10184,13 +10605,13 @@
         <v>18</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="6"/>
@@ -10198,7 +10619,7 @@
     </row>
     <row r="81" spans="1:12" ht="150" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -10210,21 +10631,21 @@
         <v>18</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="6"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" ht="150" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -10236,65 +10657,65 @@
         <v>18</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="J82" s="7"/>
       <c r="K82" s="6"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" ht="150" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J83" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="J83" s="7"/>
       <c r="K83" s="6"/>
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="6"/>
@@ -10302,25 +10723,25 @@
     </row>
     <row r="85" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="6"/>
@@ -10328,25 +10749,25 @@
     </row>
     <row r="86" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="6"/>
@@ -10354,51 +10775,51 @@
     </row>
     <row r="87" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J87" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="J87" s="5"/>
       <c r="K87" s="6"/>
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="6"/>
@@ -10406,56 +10827,60 @@
     </row>
     <row r="89" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="J89" s="7"/>
       <c r="K89" s="6"/>
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="A90" s="3"/>
+      <c r="A90" s="3">
+        <v>76</v>
+      </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J90" s="5"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="6"/>
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3">
+        <v>77</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -10466,13 +10891,13 @@
         <v>18</v>
       </c>
       <c r="G91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="6"/>
@@ -10490,13 +10915,13 @@
         <v>18</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="6"/>
@@ -10514,13 +10939,13 @@
         <v>18</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="6"/>
@@ -10535,16 +10960,16 @@
         <v>112</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="6"/>
@@ -10556,19 +10981,19 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="6"/>
@@ -10583,16 +11008,16 @@
         <v>112</v>
       </c>
       <c r="F96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H96" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="6"/>
@@ -10607,16 +11032,16 @@
         <v>112</v>
       </c>
       <c r="F97" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H97" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="6"/>
@@ -10631,64 +11056,64 @@
         <v>112</v>
       </c>
       <c r="F98" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H98" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="6"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>297</v>
+        <v>112</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="6"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>218</v>
+        <v>112</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="6"/>
@@ -10703,16 +11128,16 @@
         <v>113</v>
       </c>
       <c r="F101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="I101" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="6"/>
@@ -10727,16 +11152,16 @@
         <v>113</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="6"/>
@@ -10751,214 +11176,210 @@
         <v>113</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="6"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A104" s="3">
-        <v>82</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>176</v>
-      </c>
+    <row r="104" spans="1:12" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>18</v>
+        <v>216</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J104" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="J104" s="5"/>
       <c r="K104" s="6"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" ht="75" x14ac:dyDescent="0.4">
-      <c r="A105" s="3">
-        <v>83</v>
-      </c>
+    <row r="105" spans="1:12" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>181</v>
+        <v>216</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J105" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="J105" s="5"/>
       <c r="K105" s="6"/>
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
-        <v>84</v>
-      </c>
-      <c r="B106" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="4" t="s">
-        <v>27</v>
+      <c r="D106" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="F106" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="I106" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="J106" s="7"/>
       <c r="K106" s="6"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E107" s="3" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>105</v>
+        <v>179</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="J107" s="7"/>
       <c r="K107" s="6"/>
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E108" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J108" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="J108" s="5"/>
       <c r="K108" s="6"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J109" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="J109" s="5"/>
       <c r="K109" s="6"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="6"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -10970,21 +11391,21 @@
         <v>18</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="6"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -10996,21 +11417,21 @@
         <v>18</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J112" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="J112" s="7"/>
       <c r="K112" s="6"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -11022,21 +11443,21 @@
         <v>18</v>
       </c>
       <c r="G113" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J113" s="5"/>
+      <c r="J113" s="7"/>
       <c r="K113" s="6"/>
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -11051,18 +11472,18 @@
         <v>228</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J114" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="J114" s="5"/>
       <c r="K114" s="6"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -11074,39 +11495,39 @@
         <v>18</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J115" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="J115" s="5"/>
       <c r="K115" s="6"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="6"/>
@@ -11114,25 +11535,25 @@
     </row>
     <row r="117" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="6"/>
@@ -11140,75 +11561,79 @@
     </row>
     <row r="118" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="6"/>
       <c r="L118" s="7"/>
     </row>
     <row r="119" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A119" s="3"/>
+      <c r="A119" s="3">
+        <v>95</v>
+      </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J119" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="J119" s="7"/>
       <c r="K119" s="6"/>
       <c r="L119" s="7"/>
     </row>
     <row r="120" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A120" s="3"/>
+      <c r="A120" s="3">
+        <v>96</v>
+      </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="J120" s="7"/>
       <c r="K120" s="6"/>
       <c r="L120" s="7"/>
     </row>
@@ -11218,21 +11643,21 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J121" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="J121" s="5"/>
       <c r="K121" s="6"/>
       <c r="L121" s="7"/>
     </row>
@@ -11242,21 +11667,21 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J122" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="J122" s="5"/>
       <c r="K122" s="6"/>
       <c r="L122" s="7"/>
     </row>
@@ -11266,19 +11691,19 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="6"/>
@@ -11296,13 +11721,13 @@
         <v>18</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="6"/>
@@ -11317,168 +11742,258 @@
         <v>112</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="G125" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="I125" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="J125" s="7"/>
       <c r="K125" s="6"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" s="16" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12" t="s">
+    <row r="126" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F126" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="J126" s="17"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="14"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J126" s="7"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="7"/>
+    </row>
+    <row r="127" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="7"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J127" s="5"/>
       <c r="K127" s="6"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="7"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12" s="16" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J128" s="17"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="14"/>
+    </row>
+    <row r="129" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
+      <c r="D129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="J129" s="7"/>
       <c r="K129" s="6"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+      <c r="D130" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="J130" s="7"/>
       <c r="K130" s="6"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
-        <v>109</v>
-      </c>
+    <row r="131" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
+      <c r="D131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="J131" s="7"/>
       <c r="K131" s="6"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
-        <v>110</v>
-      </c>
+    <row r="132" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="5"/>
+      <c r="D132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J132" s="7"/>
       <c r="K132" s="6"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="5"/>
+      <c r="D133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J133" s="7"/>
       <c r="K133" s="6"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="7"/>
+      <c r="D134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J134" s="5"/>
       <c r="K134" s="6"/>
       <c r="L134" s="7"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -11494,7 +12009,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -11504,13 +12019,13 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="10"/>
+      <c r="J136" s="7"/>
       <c r="K136" s="6"/>
       <c r="L136" s="7"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -11526,7 +12041,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -11536,13 +12051,13 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="5"/>
+      <c r="J138" s="10"/>
       <c r="K138" s="6"/>
       <c r="L138" s="7"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -11558,7 +12073,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -11574,7 +12089,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -11584,13 +12099,13 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="7"/>
+      <c r="J141" s="5"/>
       <c r="K141" s="6"/>
       <c r="L141" s="7"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -11600,13 +12115,13 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="7"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="6"/>
       <c r="L142" s="7"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -11616,13 +12131,13 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="5"/>
+      <c r="J143" s="7"/>
       <c r="K143" s="6"/>
       <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -11632,13 +12147,13 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="5"/>
+      <c r="J144" s="7"/>
       <c r="K144" s="6"/>
       <c r="L144" s="7"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -11654,7 +12169,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -11670,7 +12185,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -11686,7 +12201,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -11700,9 +12215,51 @@
       <c r="K148" s="6"/>
       <c r="L148" s="7"/>
     </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
+        <v>125</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="7"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
+        <v>126</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A7:N148" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
+  <autoFilter ref="A7:N150" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -11710,16 +12267,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト_松家.xlsx
+++ b/テスト/結合テストチェックリスト_松家.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B51642-F55C-4095-8621-A18D4C9E7A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A6D21-017B-4F28-B443-9FE1CA81EF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -8022,7 +8022,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8044,6 +8044,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8164,21 +8170,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8188,19 +8179,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8520,9 +8526,9 @@
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8541,78 +8547,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="17">
         <v>45163</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="17">
         <v>45168</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -8620,13 +8626,13 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -8638,7 +8644,7 @@
       <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="20" t="s">
@@ -8658,13 +8664,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -9873,31 +9879,31 @@
       <c r="K51" s="6"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" s="29" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
-      <c r="A52" s="25">
+    <row r="52" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
         <v>56</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H52" s="4" t="s">
         <v>297</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J52" s="27"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="27"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
@@ -11805,29 +11811,29 @@
       <c r="K127" s="6"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" s="16" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12" t="s">
+    <row r="128" spans="1:12" s="29" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F128" s="13" t="s">
+      <c r="F128" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="G128" s="13" t="s">
+      <c r="G128" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="H128" s="13" t="s">
+      <c r="H128" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="I128" s="13" t="s">
+      <c r="I128" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="J128" s="17"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="14"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="28"/>
     </row>
     <row r="129" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A129" s="3"/>
@@ -12250,16 +12256,6 @@
   </sheetData>
   <autoFilter ref="A7:N150" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -12267,6 +12263,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
